--- a/AAII_Financials/Quarterly/ITAQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITAQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
   <si>
     <t>ITAQ</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,31 +665,31 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,8 +708,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -737,8 +740,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -766,8 +772,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -795,8 +804,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,8 +820,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -837,8 +850,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,8 +882,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,8 +914,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,8 +946,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,16 +959,17 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
+      <c r="E17" s="3">
+        <v>0</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -963,16 +989,19 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+      <c r="E18" s="3">
+        <v>0</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -992,8 +1021,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,16 +1037,17 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1034,8 +1067,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1063,8 +1099,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1092,16 +1131,19 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
+      <c r="E23" s="3">
+        <v>0</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1121,8 +1163,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1150,8 +1195,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,16 +1227,19 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
+      <c r="E26" s="3">
+        <v>0</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1208,16 +1259,19 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
+      <c r="E27" s="3">
+        <v>0</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1237,8 +1291,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1323,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1355,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1387,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,16 +1419,19 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1382,16 +1451,19 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
+      <c r="E33" s="3">
+        <v>0</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1411,8 +1483,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,16 +1515,19 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
+      <c r="E35" s="3">
+        <v>0</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1469,22 +1547,25 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1584,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1600,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,16 +1614,17 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
+      <c r="E41" s="3">
+        <v>0</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1558,8 +1644,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,8 +1676,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1616,8 +1708,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,8 +1740,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1674,16 +1772,19 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
+      <c r="E46" s="3">
+        <v>0</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1703,8 +1804,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1732,8 +1836,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1761,8 +1868,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1790,8 +1900,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +1932,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,17 +1964,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,8 +1996,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,17 +2028,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2060,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2076,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,8 +2090,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1990,16 +2120,19 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="E58" s="3">
+        <v>100</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2019,16 +2152,19 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2048,17 +2184,20 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,8 +2216,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2106,8 +2248,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2135,8 +2280,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2312,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2344,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,17 +2376,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>200</v>
+      </c>
+      <c r="E66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2408,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2424,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2454,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2486,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,8 +2518,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,16 +2550,19 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
         <v>0</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
+      <c r="E72" s="3">
+        <v>0</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2409,8 +2582,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2614,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2646,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,16 +2678,19 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
         <v>0</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
+      <c r="E76" s="3">
+        <v>0</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2525,8 +2710,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,22 +2742,25 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,16 +2779,19 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
         <v>0</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
+      <c r="E81" s="3">
+        <v>0</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2617,8 +2811,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,8 +2827,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2659,8 +2857,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +2889,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +2921,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +2953,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +2985,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,16 +3017,19 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
         <v>0</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
+      <c r="E89" s="3">
+        <v>0</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2833,8 +3049,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,8 +3065,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2875,8 +3095,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3127,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,8 +3159,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2962,8 +3191,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3207,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3237,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3269,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3301,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,16 +3333,19 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
         <v>0</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -3120,8 +3365,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3149,16 +3397,19 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
         <v>0</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+      <c r="E102" s="3">
+        <v>0</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
@@ -3176,6 +3427,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ITAQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITAQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
   <si>
     <t>ITAQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,39 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,8 +713,14 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -743,8 +751,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -775,8 +789,14 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,8 +827,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -821,8 +847,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -853,8 +881,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -885,8 +919,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -917,8 +957,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -949,8 +995,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -960,22 +1012,24 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -992,8 +1046,14 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1001,13 +1061,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1024,8 +1084,14 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1038,8 +1104,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1047,13 +1115,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>3000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1070,16 +1138,22 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>2500</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1102,8 +1176,14 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1134,22 +1214,28 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>2500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1166,31 +1252,37 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1198,8 +1290,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1230,22 +1328,28 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>2500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1262,22 +1366,28 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>2500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1294,8 +1404,14 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1326,8 +1442,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1358,8 +1480,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1390,8 +1518,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1422,8 +1556,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1431,13 +1571,13 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>-3000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1454,22 +1594,28 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>2500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1486,8 +1632,14 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1518,22 +1670,28 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>2500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1550,28 +1708,34 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1587,8 +1751,14 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1601,8 +1771,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1615,22 +1787,24 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>1000</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1647,8 +1821,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1679,8 +1859,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1711,8 +1897,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1743,31 +1935,37 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -1775,22 +1973,28 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1807,31 +2011,37 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>176200</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>176000</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1839,8 +2049,14 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1871,8 +2087,14 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1903,8 +2125,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1935,8 +2163,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1967,23 +2201,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>200</v>
+      </c>
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1999,8 +2239,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2031,23 +2277,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>177300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>177400</v>
+      </c>
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2063,8 +2315,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2077,8 +2335,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2091,31 +2351,33 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2123,23 +2385,29 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2155,22 +2423,28 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2187,8 +2461,14 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2196,14 +2476,14 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
+        <v>200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>200</v>
+      </c>
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2219,8 +2499,14 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2251,31 +2537,37 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>8900</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2283,8 +2575,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2315,8 +2613,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2347,8 +2651,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2379,23 +2689,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F66" s="3">
         <v>200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2727,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2425,8 +2747,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2457,8 +2781,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2489,8 +2819,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2521,8 +2857,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2553,22 +2895,28 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>-7100</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-7700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2585,8 +2933,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2617,8 +2971,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2649,8 +3009,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2681,22 +3047,28 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>168900</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>168300</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2713,8 +3085,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2745,28 +3123,34 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2782,22 +3166,28 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>2500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2814,8 +3204,14 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2828,8 +3224,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2860,8 +3258,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2892,8 +3296,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2924,8 +3334,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2956,8 +3372,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2988,8 +3410,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3020,22 +3448,28 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3052,8 +3486,14 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3066,8 +3506,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3098,8 +3540,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3130,8 +3578,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3162,8 +3616,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3171,22 +3631,22 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-176000</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3194,8 +3654,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3208,8 +3674,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3240,8 +3708,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3272,8 +3746,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3304,8 +3784,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3336,22 +3822,28 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>177700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3368,8 +3860,14 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3400,22 +3898,28 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>1000</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3430,6 +3934,12 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ITAQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITAQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
   <si>
     <t>ITAQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,43 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -719,8 +720,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -757,8 +761,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -795,8 +802,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,8 +843,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -849,8 +862,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,8 +901,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,8 +942,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -963,8 +983,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1001,8 +1024,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1014,25 +1040,26 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+      <c r="H17" s="3">
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1052,8 +1079,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1061,16 +1091,16 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+      <c r="H18" s="3">
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,8 +1120,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1106,8 +1139,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1115,16 +1149,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1144,8 +1178,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1153,11 +1190,11 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>700</v>
+      </c>
+      <c r="F21" s="3">
         <v>2500</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1182,8 +1219,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1220,25 +1260,28 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2500</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="H23" s="3">
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1258,16 +1301,19 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1284,8 +1330,8 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1296,8 +1342,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1334,25 +1383,28 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2500</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="H26" s="3">
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1372,25 +1424,28 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2500</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1410,8 +1465,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1448,8 +1506,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1486,8 +1547,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1524,8 +1588,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1562,8 +1629,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1571,16 +1641,16 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1600,25 +1670,28 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2500</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="H33" s="3">
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1638,8 +1711,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1676,25 +1752,28 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2500</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1714,31 +1793,34 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1757,8 +1839,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1773,8 +1858,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1789,25 +1875,26 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1827,8 +1914,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1865,8 +1955,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1903,8 +1996,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1941,20 +2037,23 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1967,8 +2066,8 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -1979,8 +2078,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1988,16 +2090,16 @@
         <v>1000</v>
       </c>
       <c r="E46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+      <c r="H46" s="3">
+        <v>0</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -2017,20 +2119,23 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E47" s="3">
         <v>176200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>176000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,8 +2148,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2055,8 +2160,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2093,8 +2201,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2131,8 +2242,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2169,8 +2283,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2207,26 +2324,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>200</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
       </c>
       <c r="G52" s="3">
+        <v>200</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2245,8 +2365,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2283,26 +2406,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E54" s="3">
         <v>177300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>177400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2321,8 +2447,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2337,8 +2466,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2353,16 +2483,17 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
+      <c r="E57" s="3">
+        <v>0</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -2379,8 +2510,8 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2391,8 +2522,11 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2403,13 +2537,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2429,25 +2563,28 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
       </c>
       <c r="F59" s="3">
+        <v>200</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2467,13 +2604,16 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -2482,11 +2622,11 @@
         <v>200</v>
       </c>
       <c r="G60" s="3">
+        <v>200</v>
+      </c>
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2505,8 +2645,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2543,20 +2686,23 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E62" s="3">
         <v>8100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8900</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2569,8 +2715,8 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2581,8 +2727,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2619,8 +2768,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2657,8 +2809,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2695,26 +2850,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E66" s="3">
         <v>8400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2891,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2749,8 +2910,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2787,8 +2949,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2825,8 +2990,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2863,8 +3031,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2901,25 +3072,28 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7700</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
       <c r="G72" s="3">
         <v>0</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="H72" s="3">
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,8 +3113,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2977,8 +3154,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3015,8 +3195,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3053,25 +3236,28 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E76" s="3">
         <v>168900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>168300</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
         <v>0</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3091,8 +3277,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3129,31 +3318,34 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3172,25 +3364,28 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2500</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3210,8 +3405,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3226,8 +3424,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3264,8 +3463,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3302,8 +3504,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3340,8 +3545,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3378,8 +3586,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3416,8 +3627,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3454,25 +3668,28 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3492,8 +3709,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3508,8 +3728,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3546,8 +3767,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3584,8 +3808,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3622,8 +3849,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3631,11 +3861,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-176000</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3878,8 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3660,8 +3890,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3676,8 +3909,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3714,8 +3948,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3752,8 +3989,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3790,8 +4030,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3828,25 +4071,28 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>177700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3866,8 +4112,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3904,25 +4153,28 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3940,6 +4192,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ITAQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITAQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="92">
   <si>
     <t>ITAQ</t>
   </si>
@@ -1046,8 +1046,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
@@ -1310,7 +1310,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1391,8 +1391,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>800</v>
       </c>
       <c r="E26" s="3">
         <v>700</v>
@@ -1432,8 +1432,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>800</v>
       </c>
       <c r="E27" s="3">
         <v>700</v>
@@ -1678,8 +1678,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>800</v>
       </c>
       <c r="E33" s="3">
         <v>700</v>
@@ -1760,8 +1760,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>800</v>
       </c>
       <c r="E35" s="3">
         <v>700</v>
@@ -2332,8 +2332,8 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -3245,7 +3245,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-6900</v>
+        <v>169800</v>
       </c>
       <c r="E76" s="3">
         <v>168900</v>
@@ -3372,8 +3372,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>800</v>
       </c>
       <c r="E81" s="3">
         <v>700</v>

--- a/AAII_Financials/Quarterly/ITAQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITAQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="92">
   <si>
     <t>ITAQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -723,8 +723,11 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -764,8 +767,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -805,8 +811,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -846,8 +855,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -863,8 +875,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -904,8 +917,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,8 +961,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -986,8 +1005,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1027,8 +1049,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1041,28 +1066,29 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1082,8 +1108,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1091,19 +1120,19 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1123,8 +1152,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1140,8 +1172,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1149,19 +1182,19 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1181,8 +1214,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1190,14 +1226,14 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="3">
         <v>700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2500</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1222,8 +1258,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1263,28 +1302,31 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2500</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1304,19 +1346,22 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1333,8 +1378,8 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1345,8 +1390,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1386,28 +1434,31 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>900</v>
+      </c>
+      <c r="E26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2500</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1427,28 +1478,31 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>900</v>
+      </c>
+      <c r="E27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2500</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1468,8 +1522,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1509,8 +1566,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1550,8 +1610,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1591,8 +1654,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1632,8 +1698,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1641,19 +1710,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1673,28 +1742,31 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>900</v>
+      </c>
+      <c r="E33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2500</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1714,8 +1786,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1755,28 +1830,31 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>900</v>
+      </c>
+      <c r="E35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2500</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1796,34 +1874,37 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1842,8 +1923,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1859,8 +1943,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1876,28 +1961,29 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1917,8 +2003,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1958,8 +2047,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1999,8 +2091,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2040,23 +2135,26 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2069,8 +2167,8 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2081,28 +2179,31 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E46" s="3">
         <v>1000</v>
       </c>
       <c r="F46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+      <c r="I46" s="3">
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2122,23 +2223,26 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>178500</v>
+      </c>
+      <c r="E47" s="3">
         <v>177000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>176200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>176000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2151,8 +2255,8 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2163,8 +2267,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2204,8 +2311,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2245,8 +2355,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2286,8 +2399,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2327,8 +2443,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2336,20 +2455,20 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>200</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
       </c>
       <c r="H52" s="3">
+        <v>200</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,8 +2487,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2409,29 +2531,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>179200</v>
+      </c>
+      <c r="E54" s="3">
         <v>178000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>177300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>177400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2450,8 +2575,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2467,8 +2595,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2484,19 +2613,20 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2513,8 +2643,8 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -2525,8 +2655,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2540,13 +2673,13 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2566,28 +2699,31 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
-      </c>
-      <c r="E59" s="3">
-        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
       </c>
       <c r="G59" s="3">
+        <v>200</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2607,16 +2743,19 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
@@ -2625,11 +2764,11 @@
         <v>200</v>
       </c>
       <c r="H60" s="3">
+        <v>200</v>
+      </c>
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,8 +2787,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2689,23 +2831,26 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E62" s="3">
         <v>7700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8900</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2718,8 +2863,8 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2730,8 +2875,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2771,8 +2919,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2812,8 +2963,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2853,29 +3007,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E66" s="3">
         <v>8200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2894,8 +3051,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2911,8 +3071,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2952,8 +3113,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2993,8 +3157,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3034,8 +3201,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3075,28 +3245,31 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7700</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
       <c r="H72" s="3">
         <v>0</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3116,8 +3289,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3157,8 +3333,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3198,8 +3377,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3239,28 +3421,31 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>170600</v>
+      </c>
+      <c r="E76" s="3">
         <v>169800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>168900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>168300</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3280,8 +3465,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3321,34 +3509,37 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3367,28 +3558,31 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>900</v>
+      </c>
+      <c r="E81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2500</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3408,8 +3602,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3425,8 +3622,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3466,8 +3664,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3507,8 +3708,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3548,8 +3752,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3589,8 +3796,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3630,8 +3840,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3671,28 +3884,31 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3712,8 +3928,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3729,8 +3948,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3770,8 +3990,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3811,8 +4034,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3852,8 +4078,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3864,11 +4093,11 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-176000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3881,8 +4110,8 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3893,8 +4122,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3910,8 +4142,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3951,8 +4184,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3992,8 +4228,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4033,8 +4272,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4074,8 +4316,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4083,19 +4328,19 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>177700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -4115,8 +4360,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4156,28 +4404,31 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -4195,6 +4446,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ITAQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITAQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="92">
   <si>
     <t>ITAQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,52 +665,54 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -726,8 +728,14 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -770,8 +778,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -814,8 +828,14 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -858,8 +878,14 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -876,8 +902,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -920,8 +948,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -964,8 +998,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1008,8 +1048,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1052,8 +1098,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1067,34 +1119,36 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
@@ -1111,8 +1165,14 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1120,25 +1180,25 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
@@ -1155,8 +1215,14 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1173,8 +1239,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1182,25 +1250,25 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1217,8 +1285,14 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1226,20 +1300,20 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>2500</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,8 +1335,14 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1305,34 +1385,40 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F23" s="3">
         <v>1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>2500</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
@@ -1349,25 +1435,31 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1381,11 +1473,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1393,8 +1485,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1437,34 +1535,40 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2500</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
@@ -1481,34 +1585,40 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2500</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
@@ -1525,8 +1635,14 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1569,8 +1685,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1613,8 +1735,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1657,8 +1785,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1701,8 +1835,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1710,25 +1850,25 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1745,34 +1885,40 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2500</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
@@ -1789,8 +1935,14 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1833,34 +1985,40 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2500</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
@@ -1877,40 +2035,46 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1926,8 +2090,14 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1944,8 +2114,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1962,8 +2134,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1971,25 +2145,25 @@
         <v>500</v>
       </c>
       <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>500</v>
+      </c>
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
@@ -2006,8 +2180,14 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2050,8 +2230,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2094,8 +2280,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2138,16 +2330,22 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
@@ -2155,11 +2353,11 @@
       <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>300</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2170,11 +2368,11 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2182,34 +2380,40 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
@@ -2226,29 +2430,35 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>180200</v>
+      </c>
+      <c r="F47" s="3">
         <v>178500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>177000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>176200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>176000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2258,11 +2468,11 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2270,8 +2480,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2314,8 +2530,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2358,8 +2580,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2402,8 +2630,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2446,35 +2680,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,8 +2730,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2534,35 +2780,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>180500</v>
+      </c>
+      <c r="F54" s="3">
         <v>179200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>178000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>177300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>177400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,8 +2830,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2596,8 +2854,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2614,25 +2874,27 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2646,11 +2908,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -2658,16 +2920,22 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2676,17 +2944,17 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2702,34 +2970,40 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
@@ -2746,35 +3020,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
       </c>
       <c r="I60" s="3">
+        <v>200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>200</v>
+      </c>
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2790,8 +3070,14 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2834,29 +3120,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F62" s="3">
         <v>7600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>7700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>8100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>8900</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2866,11 +3158,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -2878,8 +3170,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2922,8 +3220,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2966,8 +3270,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3010,35 +3320,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F66" s="3">
         <v>8500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3054,8 +3370,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3072,8 +3394,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3116,8 +3440,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3160,8 +3490,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3204,8 +3540,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3248,34 +3590,40 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-7100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-7700</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
@@ -3292,8 +3640,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3336,8 +3690,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3380,8 +3740,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3424,34 +3790,40 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
+        <v>171800</v>
+      </c>
+      <c r="F76" s="3">
         <v>170600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>169800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>168900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>168300</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
@@ -3468,8 +3840,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3512,40 +3890,46 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3561,34 +3945,40 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2500</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
@@ -3605,8 +3995,14 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3623,8 +4019,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3667,8 +4065,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3711,8 +4115,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3755,8 +4165,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3799,8 +4215,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3843,8 +4265,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3887,34 +4315,40 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -3931,8 +4365,14 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3949,8 +4389,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3993,8 +4435,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4037,8 +4485,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4081,29 +4535,35 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>166200</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-176000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4113,11 +4573,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4125,8 +4585,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4143,8 +4609,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4187,8 +4655,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4231,8 +4705,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4275,8 +4755,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4319,34 +4805,40 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-165100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>177700</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -4363,8 +4855,14 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4407,34 +4905,40 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F102" s="3">
         <v>-200</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
@@ -4449,6 +4953,12 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
